--- a/biology/Botanique/Stachybotrys/Stachybotrys.xlsx
+++ b/biology/Botanique/Stachybotrys/Stachybotrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachybotrys est un genre de champignons de la famille des Dematiaceae.  Il compte, entre autres espèces, une moisissure qui colonise les semences : Stachybotrys chartarum.
 </t>
@@ -511,19 +523,12 @@
           <t>Maladie et dégâts des semences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un champignon saprophyte qui ne provoque pas de dégât sur les plantes. C'est un destructeur de cellulose que l'on rencontre sur des débris végétaux, sur du papier mais parfois aussi sur des semences[1].
-Sur de jeunes plantules, une légère pourriture des germes peut être observée[1].
-Espèces concernées
-Toutes les semences peuvent être concernées[2].
-Localisation sur la graine
-Sous forme de spores en surface des téguments[2].
-Fréquence d'apparition
-Assez peu fréquent
-Méthodes d'analyse et identification
-Méthode sur gélose à l'extrait de malt ou Malt-agar
-Colonies mycéliennes peu développées. D'abord blanc-gris puis noir. Les conidiophores sont dressés, bien différenciés, simples, renflés à la base et mesurent de 25 à  100 µm de longueur. Ils se terminent par un bouquet de 6 à 10 phialides qui produisent des spores brun-noirâtre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un champignon saprophyte qui ne provoque pas de dégât sur les plantes. C'est un destructeur de cellulose que l'on rencontre sur des débris végétaux, sur du papier mais parfois aussi sur des semences.
+Sur de jeunes plantules, une légère pourriture des germes peut être observée.
 </t>
         </is>
       </c>
@@ -549,12 +554,163 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Maladie et dégâts des semences</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces concernées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les semences peuvent être concernées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stachybotrys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stachybotrys</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Maladie et dégâts des semences</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Localisation sur la graine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous forme de spores en surface des téguments.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stachybotrys</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stachybotrys</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maladie et dégâts des semences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fréquence d'apparition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez peu fréquent
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stachybotrys</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stachybotrys</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Maladie et dégâts des semences</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Méthodes d'analyse et identification</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Méthode sur gélose à l'extrait de malt ou Malt-agar
+Colonies mycéliennes peu développées. D'abord blanc-gris puis noir. Les conidiophores sont dressés, bien différenciés, simples, renflés à la base et mesurent de 25 à  100 µm de longueur. Ils se terminent par un bouquet de 6 à 10 phialides qui produisent des spores brun-noirâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stachybotrys</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stachybotrys</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 mars 2013)[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 mars 2013) :
 Stachybotrys alternans
 Stachybotrys breviuscula
 Stachybotrys chartarum
@@ -579,7 +735,7 @@
 Stachybotrys suthepensis
 Stachybotrys theobromae
 Stachybotrys waitakere
-Selon Index Fungorum                                      (2 mars 2013)[4] :
+Selon Index Fungorum                                      (2 mars 2013) :
 Stachybotrys alternans Bonord. 1851
 Stachybotrys asperula Massee 1893; Anamorphic Hypocreales
 Stachybotrys bambusicola Rifai 1964; Anamorphic Hypocreales
@@ -659,7 +815,7 @@
 Stachybotrys zeae Morgan-Jones &amp; Karr 1976; Anamorphic Hypocreales
 Stachybotrys zhangmuensis Y.M. Wu &amp; T.Y. Zhang 2009; Anamorphic Hypocreales
 Stachybotrys zuckii K. Matsush. &amp; Matsush. 1995; Anamorphic Hypocreales
-Selon NCBI  (2 mars 2013)[5] :
+Selon NCBI  (2 mars 2013) :
 Stachybotrys bisbyi
 Stachybotrys chartarum
 non-classé Stachybotrys chartarum IBT 40288
@@ -681,7 +837,7 @@
 Stachybotrys subsimplex
 Stachybotrys theobromae
 aff. Stachybotrys sp. LA227
-Selon World Register of Marine Species                               (2 mars 2013)[6] :
+Selon World Register of Marine Species                               (2 mars 2013) :
 Stachybotrys chartarum (Ehrenb.) S. Hughes, 1958
 Stachybotrys mangiferae P.C. Misra &amp; S.K. Srivast., 1982</t>
         </is>
